--- a/app/config/tables/QPS/forms/ronda_2/ronda_2.xlsx
+++ b/app/config/tables/QPS/forms/ronda_2/ronda_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\ronda_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7EA54-2E26-4586-867E-B9B0D149CD59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E842697-D0D7-403B-AB38-27DC9938A9E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -57,9 +58,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -112,9 +110,6 @@
   </si>
   <si>
     <t>barcode</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Escanea o codigo de barra</t>
@@ -417,12 +412,36 @@
   <si>
     <t>esp_ef_adverso_r4</t>
   </si>
+  <si>
+    <t>id_paciente</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +492,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -497,6 +524,15 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -516,7 +552,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -580,16 +616,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1013,13 +1051,13 @@
   <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD16"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
@@ -1034,75 +1072,75 @@
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" t="s">
-        <v>49</v>
-      </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="13"/>
@@ -1112,25 +1150,25 @@
       <c r="I2" s="1"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="16"/>
@@ -1142,163 +1180,163 @@
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B6" s="12"/>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B7" s="12"/>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B21" s="12"/>
       <c r="C21" s="19"/>
       <c r="D21"/>
@@ -1307,7 +1345,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B22" s="12"/>
       <c r="C22" s="19"/>
       <c r="D22"/>
@@ -1316,7 +1354,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23"/>
@@ -1325,224 +1363,224 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B35" s="12"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B39" s="12"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B40" s="12"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B41" s="12"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B44" s="12"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B46" s="12"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B47" s="12"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B48" s="12"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B49" s="12"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B50" s="12"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B51" s="12"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B53" s="12"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B54" s="12"/>
       <c r="D54" s="14"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B55" s="12"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B56" s="13"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B58" s="12"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B59" s="12"/>
       <c r="D59" s="14"/>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B60" s="12"/>
       <c r="D60" s="14"/>
       <c r="E60" s="13"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B61" s="12"/>
       <c r="D61" s="14"/>
       <c r="E61" s="13"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B62" s="12"/>
       <c r="D62" s="14"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B63" s="12"/>
       <c r="D63" s="14"/>
       <c r="E63" s="13"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B64" s="13"/>
       <c r="D64" s="14"/>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B66" s="12"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="17"/>
@@ -1551,7 +1589,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="17"/>
@@ -1561,7 +1599,7 @@
       <c r="G68" s="14"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="17"/>
@@ -1571,7 +1609,7 @@
       <c r="G69" s="14"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="17"/>
@@ -1580,7 +1618,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="17"/>
@@ -1589,7 +1627,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="17"/>
@@ -1598,7 +1636,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="17"/>
@@ -1607,7 +1645,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="17"/>
@@ -1616,25 +1654,25 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="17"/>
@@ -1643,7 +1681,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="17"/>
@@ -1652,7 +1690,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="17"/>
@@ -1661,7 +1699,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="17"/>
@@ -1670,7 +1708,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="17"/>
@@ -1679,7 +1717,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="17"/>
@@ -1688,7 +1726,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="17"/>
@@ -1697,147 +1735,147 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="13"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="13"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="13"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="13"/>
@@ -1870,7 +1908,7 @@
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1878,682 +1916,682 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2576,54 +2614,54 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>2019070600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2644,7 +2682,7 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -2652,61 +2690,61 @@
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2716,445 +2754,453 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3164,4 +3210,52 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2DDF3D-4A9A-4D7C-8FE3-6E5F3F882587}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>